--- a/State Province Issues.xlsx
+++ b/State Province Issues.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Documents\Paradox Interactive\Hearts of Iron IV\mod\1984DEV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Documents\Paradox Interactive\Hearts of Iron IV\mod\1984\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B610C93-5ECA-4DBC-9F35-1B85C8E2A92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53C966-90C1-4B8A-8F64-11DD90FB555E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1500" windowWidth="26070" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-585" yWindow="510" windowWidth="26070" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Province Ownership" sheetId="1" r:id="rId1"/>
     <sheet name="Strat Regions" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Province Ownership'!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="198">
   <si>
     <t>23:49:44][state.cpp:661]: Error: Province with id: 281 is already added to state "Königsberg" ( with id: 763 ), adding it to state "Ermland-Masuren" ( with id: 5) and thus overriding first state.</t>
   </si>
@@ -503,6 +506,123 @@
   </si>
   <si>
     <t>[23:49:44][gamestate.cpp:2550]: MAP_ERROR: State "Northern Kashmir"(#787) has provinces (#1910, #2084) belonging to different strategic areas: "Himalayas" (#146), "Pakistan" (#190)</t>
+  </si>
+  <si>
+    <t>Königsberg</t>
+  </si>
+  <si>
+    <t>Picardy</t>
+  </si>
+  <si>
+    <t>Southern Bessarabia</t>
+  </si>
+  <si>
+    <t>Wilno</t>
+  </si>
+  <si>
+    <t>West Banat</t>
+  </si>
+  <si>
+    <t>Asturias</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Santarém</t>
+  </si>
+  <si>
+    <t>North Angola</t>
+  </si>
+  <si>
+    <t>Northern Kashmir</t>
+  </si>
+  <si>
+    <t>Sidi Ifni</t>
+  </si>
+  <si>
+    <t>Tombouctou</t>
+  </si>
+  <si>
+    <t>Middle Congo</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>North Darfur</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Ermland-Masuren</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>Bessarabia</t>
+  </si>
+  <si>
+    <t>Western Desert</t>
+  </si>
+  <si>
+    <t>Stanleyville</t>
+  </si>
+  <si>
+    <t>Rhodesia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Equatorial Africa</t>
+  </si>
+  <si>
+    <t>Southern Sahara</t>
+  </si>
+  <si>
+    <t>Marrakech</t>
+  </si>
+  <si>
+    <t>Wilejka</t>
+  </si>
+  <si>
+    <t>Nowogródek</t>
+  </si>
+  <si>
+    <t>Nord-Pas-de-Calais</t>
+  </si>
+  <si>
+    <t>Kashmir</t>
+  </si>
+  <si>
+    <t>León</t>
+  </si>
+  <si>
+    <t>Beja</t>
+  </si>
+  <si>
+    <t>Leopoldville</t>
   </si>
 </sst>
 </file>
@@ -518,7 +638,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +654,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -580,6 +706,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,918 +992,1374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A2:C151"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="168.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="168.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="14"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="14"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="14"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="14"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" s="14"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" s="14"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C118" s="14"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="14"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123" s="14"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="14"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C135" s="14"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C137" s="14"/>
+    </row>
+    <row r="138" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="C141" s="14"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="C143" s="14"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" s="4"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="4"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124" s="4"/>
-    </row>
-    <row r="125" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" s="4"/>
-    </row>
-    <row r="126" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126" s="4"/>
-    </row>
-    <row r="127" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" s="4"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130" s="4"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134" s="2"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" s="4"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139" s="4"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140" s="2"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142" s="2"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143" s="2"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" s="2"/>
-    </row>
-    <row r="145" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145" s="4"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147" s="2"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149" s="2"/>
-    </row>
-    <row r="150" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150" s="4"/>
+      <c r="C151" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{C83CEEB2-99D4-443D-9A84-B41C50750EA8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C151">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1780,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0298B66-498D-4DCC-B017-C92925BF0137}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
